--- a/Tabla-Leontief-Gramos.xlsx
+++ b/Tabla-Leontief-Gramos.xlsx
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Pan de sal</t>
+          <t>Azúcar</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -475,7 +475,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Pan de dulce</t>
+          <t>Mantequilla</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -497,7 +497,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Pan de canela</t>
+          <t>Harina</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -519,7 +519,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Cachos</t>
+          <t>Sal</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -541,7 +541,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Pan Mixto</t>
+          <t>Levadura</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -563,7 +563,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Palanqueta</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -585,7 +585,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Queque</t>
+          <t>Canela</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -607,7 +607,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Galletas</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -629,7 +629,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Donas</t>
+          <t>Huevos</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
